--- a/常用格式.xlsx
+++ b/常用格式.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17680"/>
+    <workbookView activeTab="0" windowHeight="17680"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -236,183 +236,202 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" count="4" mc:Ignorable="xr9 x14ac">
+  <numFmts count="8">
+    <numFmt numFmtId="5" formatCode="&quot;$&quot;#,##0_);(&quot;$&quot;#,##0)"/>
+    <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red](&quot;$&quot;#,##0)"/>
+    <numFmt numFmtId="7" formatCode="&quot;$&quot;#,##0.00_);(&quot;$&quot;#,##0.00)"/>
+    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red](&quot;$&quot;#,##0.00)"/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+  <fonts count="25">
+    <font>
       <name val="宋体"/>
       <charset val="134"/>
+      <color rgb="FF000000"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10.5"/>
-      <color rgb="FF333333"/>
+      <color rgb="FF000000"/>
+      <sz val="11"/>
+    </font>
+    <font>
       <name val="Arial"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10.5"/>
       <color rgb="FF333333"/>
+      <sz val="10"/>
+    </font>
+    <font>
       <name val="Arial"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <b/>
+      <color rgb="FF333333"/>
+      <sz val="10"/>
+    </font>
+    <font>
       <name val="宋体"/>
       <charset val="0"/>
+      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <u val="single"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <u val="single"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <color rgb="FFFF0000"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <b/>
+      <color rgb="FF44546A"/>
+      <sz val="18"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <i/>
+      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <b/>
+      <color rgb="FF44546A"/>
+      <sz val="15"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <b/>
+      <color rgb="FF44546A"/>
+      <sz val="13"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <b/>
+      <color rgb="FF44546A"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <b/>
+      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <b/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <b/>
+      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <b/>
+      <color rgb="FF000000"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <color rgb="FF006100"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <color rgb="FF9C0006"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <color rgb="FF9C6500"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <color rgb="FF000000"/>
+      <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <strike/>
+      <color rgb="FF333333"/>
+      <sz val="10"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <b/>
+      <strike/>
+      <color rgb="FF333333"/>
+      <sz val="10"/>
     </font>
   </fonts>
   <fills count="34">
@@ -424,7 +443,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2" tint="-0.1"/>
+        <fgColor rgb="FFD0CECE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -472,324 +491,370 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FF4874CB"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDAE3F4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB5C7EA"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF91ABDF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEE822F"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFBE5D5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF8CCAB"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF4B382"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2BA02"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFEF2CA"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFEE595"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFDD960"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF75BD42"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE3F1D9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7E4B3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFACD78D"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF30C0B4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD3F4F1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA8E9E3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7DDED6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE54C5E"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF9DBDE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF4B7BE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEF939E"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
   <borders count="21">
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="medium">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </right>
       <top style="medium">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </top>
-      <bottom/>
-      <diagonal/>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </right>
       <top style="medium">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </top>
-      <bottom/>
-      <diagonal/>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </left>
       <right style="medium">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </right>
       <top style="medium">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </top>
-      <bottom/>
-      <diagonal/>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="medium">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </left>
-      <right/>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
       <top style="medium">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </right>
       <top style="medium">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </left>
       <right style="medium">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </right>
       <top style="medium">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="medium">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </left>
-      <right/>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
       <top style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </left>
       <right style="medium">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="medium">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </left>
-      <right/>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
       <top style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom style="medium">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom style="medium">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </left>
       <right style="medium">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom style="medium">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="thin">
@@ -804,25 +869,43 @@
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
       <bottom style="medium">
-        <color theme="4"/>
+        <color rgb="FF4874CB"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color rgb="FFA3B9E4"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="thin">
@@ -837,7 +920,9 @@
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="thin">
@@ -852,7 +937,9 @@
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="double">
@@ -867,180 +954,196 @@
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF4874CB"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF4874CB"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
   </borders>
   <cellStyleXfs count="49">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+  <cellXfs count="27">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1095,6 +1198,30 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1620,20 +1747,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" mc:Ignorable="x14ac">
   <sheetPr/>
-  <dimension ref="A1:D30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView workbookViewId="0" tabSelected="1">
+      <selection pane="topLeft" activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="3"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.72727272727273" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="4" width="15.6363636363636" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="25" customHeight="1" spans="1:4">
+    <row ht="25" customHeight="1" r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1647,8 +1773,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" ht="25" customHeight="1" spans="1:4">
-      <c r="A2" s="4" t="s">
+    <row ht="25" customHeight="1" r="2" spans="1:4">
+      <c r="A2" s="19" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="5" t="s">
@@ -1657,11 +1783,11 @@
       <c r="C2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="24" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" ht="25" customHeight="1" spans="1:4">
+    <row ht="25" customHeight="1" r="3" spans="1:4">
       <c r="A3" s="7" t="s">
         <v>8</v>
       </c>
@@ -1671,12 +1797,12 @@
       <c r="C3" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="25" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" ht="25" customHeight="1" spans="1:4">
-      <c r="A4" s="7" t="s">
+    <row ht="25" customHeight="1" r="4" spans="1:4">
+      <c r="A4" s="20" t="s">
         <v>12</v>
       </c>
       <c r="B4" s="10" t="s">
@@ -1685,12 +1811,12 @@
       <c r="C4" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="25" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" ht="25" customHeight="1" spans="1:4">
-      <c r="A5" s="11" t="s">
+    <row ht="25" customHeight="1" r="5" spans="1:4">
+      <c r="A5" s="21" t="s">
         <v>16</v>
       </c>
       <c r="B5" s="8" t="s">
@@ -1699,11 +1825,11 @@
       <c r="C5" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="26" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="6" ht="25" customHeight="1" spans="1:4">
+    <row ht="25" customHeight="1" r="6" spans="1:4">
       <c r="A6" s="11" t="s">
         <v>20</v>
       </c>
@@ -1713,11 +1839,11 @@
       <c r="C6" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="D6" s="26" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="7" ht="25" customHeight="1" spans="1:4">
+    <row ht="25" customHeight="1" r="7" spans="1:4">
       <c r="A7" s="7" t="s">
         <v>24</v>
       </c>
@@ -1727,26 +1853,26 @@
       <c r="C7" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="D7" s="26" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="8" ht="25" customHeight="1" spans="1:4">
-      <c r="A8" s="7" t="s">
+    <row ht="25" customHeight="1" r="8" spans="1:4">
+      <c r="A8" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="22" t="s">
         <v>29</v>
       </c>
       <c r="C8" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="25" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="9" ht="25" customHeight="1" spans="1:4">
-      <c r="A9" s="7" t="s">
+    <row ht="25" customHeight="1" r="9" spans="1:4">
+      <c r="A9" s="20" t="s">
         <v>32</v>
       </c>
       <c r="B9" s="8" t="s">
@@ -1759,8 +1885,8 @@
         <v>35</v>
       </c>
     </row>
-    <row r="10" ht="25" customHeight="1" spans="1:4">
-      <c r="A10" s="11" t="s">
+    <row ht="25" customHeight="1" r="10" spans="1:4">
+      <c r="A10" s="21" t="s">
         <v>36</v>
       </c>
       <c r="B10" s="10" t="s">
@@ -1769,12 +1895,12 @@
       <c r="C10" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="D10" s="25" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="11" ht="25" customHeight="1" spans="1:4">
-      <c r="A11" s="11" t="s">
+    <row ht="25" customHeight="1" r="11" spans="1:4">
+      <c r="A11" s="21" t="s">
         <v>40</v>
       </c>
       <c r="B11" s="10" t="s">
@@ -1785,19 +1911,19 @@
         <v>42</v>
       </c>
     </row>
-    <row r="12" ht="25" customHeight="1" spans="1:4">
-      <c r="A12" s="11" t="s">
+    <row ht="25" customHeight="1" r="12" spans="1:4">
+      <c r="A12" s="21" t="s">
         <v>43</v>
       </c>
       <c r="B12" s="10" t="s">
         <v>44</v>
       </c>
       <c r="C12" s="13"/>
-      <c r="D12" s="9" t="s">
+      <c r="D12" s="25" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="13" ht="25" customHeight="1" spans="1:4">
+    <row ht="25" customHeight="1" r="13" spans="1:4">
       <c r="A13" s="7" t="s">
         <v>46</v>
       </c>
@@ -1805,12 +1931,12 @@
         <v>47</v>
       </c>
       <c r="C13" s="13"/>
-      <c r="D13" s="9" t="s">
+      <c r="D13" s="25" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="14" ht="25" customHeight="1" spans="1:4">
-      <c r="A14" s="7" t="s">
+    <row ht="25" customHeight="1" r="14" spans="1:4">
+      <c r="A14" s="20" t="s">
         <v>49</v>
       </c>
       <c r="B14" s="8" t="s">
@@ -1821,27 +1947,27 @@
         <v>51</v>
       </c>
     </row>
-    <row r="15" ht="25" customHeight="1" spans="1:4">
-      <c r="A15" s="11" t="s">
+    <row ht="25" customHeight="1" r="15" spans="1:4">
+      <c r="A15" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="22" t="s">
         <v>53</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="14"/>
     </row>
-    <row r="16" ht="25" customHeight="1" spans="1:4">
+    <row ht="25" customHeight="1" r="16" spans="1:4">
       <c r="A16" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="B16" s="23" t="s">
         <v>55</v>
       </c>
       <c r="C16" s="13"/>
       <c r="D16" s="14"/>
     </row>
-    <row r="17" ht="25" customHeight="1" spans="1:4">
+    <row ht="25" customHeight="1" r="17" spans="1:4">
       <c r="A17" s="11" t="s">
         <v>56</v>
       </c>
@@ -1851,17 +1977,17 @@
       <c r="C17" s="13"/>
       <c r="D17" s="14"/>
     </row>
-    <row r="18" ht="25" customHeight="1" spans="1:4">
+    <row ht="25" customHeight="1" r="18" spans="1:4">
       <c r="A18" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="B18" s="10" t="s">
+      <c r="B18" s="23" t="s">
         <v>59</v>
       </c>
       <c r="C18" s="13"/>
       <c r="D18" s="14"/>
     </row>
-    <row r="19" ht="25" customHeight="1" spans="1:4">
+    <row ht="25" customHeight="1" r="19" spans="1:4">
       <c r="A19" s="7" t="s">
         <v>60</v>
       </c>
@@ -1869,23 +1995,23 @@
       <c r="C19" s="13"/>
       <c r="D19" s="14"/>
     </row>
-    <row r="20" ht="25" customHeight="1" spans="1:4">
-      <c r="A20" s="11" t="s">
+    <row ht="25" customHeight="1" r="20" spans="1:4">
+      <c r="A20" s="21" t="s">
         <v>61</v>
       </c>
       <c r="B20" s="13"/>
       <c r="C20" s="13"/>
       <c r="D20" s="14"/>
     </row>
-    <row r="21" ht="25" customHeight="1" spans="1:4">
-      <c r="A21" s="11" t="s">
+    <row ht="25" customHeight="1" r="21" spans="1:4">
+      <c r="A21" s="21" t="s">
         <v>62</v>
       </c>
       <c r="B21" s="13"/>
       <c r="C21" s="13"/>
       <c r="D21" s="14"/>
     </row>
-    <row r="22" ht="25" customHeight="1" spans="1:4">
+    <row ht="25" customHeight="1" r="22" spans="1:4">
       <c r="A22" s="7" t="s">
         <v>63</v>
       </c>
@@ -1893,15 +2019,15 @@
       <c r="C22" s="13"/>
       <c r="D22" s="14"/>
     </row>
-    <row r="23" ht="25" customHeight="1" spans="1:4">
-      <c r="A23" s="7" t="s">
+    <row ht="25" customHeight="1" r="23" spans="1:4">
+      <c r="A23" s="20" t="s">
         <v>64</v>
       </c>
       <c r="B23" s="13"/>
       <c r="C23" s="13"/>
       <c r="D23" s="14"/>
     </row>
-    <row r="24" ht="25" customHeight="1" spans="1:4">
+    <row ht="25" customHeight="1" r="24" spans="1:4">
       <c r="A24" s="7" t="s">
         <v>65</v>
       </c>
@@ -1909,15 +2035,15 @@
       <c r="C24" s="13"/>
       <c r="D24" s="14"/>
     </row>
-    <row r="25" ht="25" customHeight="1" spans="1:4">
-      <c r="A25" s="11" t="s">
+    <row ht="25" customHeight="1" r="25" spans="1:4">
+      <c r="A25" s="21" t="s">
         <v>66</v>
       </c>
       <c r="B25" s="13"/>
       <c r="C25" s="13"/>
       <c r="D25" s="14"/>
     </row>
-    <row r="26" ht="25" customHeight="1" spans="1:4">
+    <row ht="25" customHeight="1" r="26" spans="1:4">
       <c r="A26" s="7" t="s">
         <v>67</v>
       </c>
@@ -1925,25 +2051,25 @@
       <c r="C26" s="13"/>
       <c r="D26" s="14"/>
     </row>
-    <row r="27" ht="25" customHeight="1" spans="1:4">
+    <row ht="25" customHeight="1" r="27" spans="1:4">
       <c r="A27" s="15"/>
       <c r="B27" s="13"/>
       <c r="C27" s="13"/>
       <c r="D27" s="14"/>
     </row>
-    <row r="28" ht="25" customHeight="1" spans="1:4">
+    <row ht="25" customHeight="1" r="28" spans="1:4">
       <c r="A28" s="15"/>
       <c r="B28" s="13"/>
       <c r="C28" s="13"/>
       <c r="D28" s="14"/>
     </row>
-    <row r="29" ht="25" customHeight="1" spans="1:4">
+    <row ht="25" customHeight="1" r="29" spans="1:4">
       <c r="A29" s="15"/>
       <c r="B29" s="13"/>
       <c r="C29" s="13"/>
       <c r="D29" s="14"/>
     </row>
-    <row r="30" ht="25" customHeight="1" spans="1:4">
+    <row ht="25" customHeight="1" r="30" spans="1:4">
       <c r="A30" s="16"/>
       <c r="B30" s="17"/>
       <c r="C30" s="17"/>
